--- a/data/trans_orig/P14A23_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A23_2015-Habitat-trans_orig.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>59,52%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>61,63%</t>
+          <t>63,33%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>95,54%</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>36,67%</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,08%</t>
+          <t>56,35%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>81,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>98,88%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>98,96%</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>81,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>91,45%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,14%</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,76%</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>97,9%</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
